--- a/Barnes/analysis-n-alpha-h.xlsx
+++ b/Barnes/analysis-n-alpha-h.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herbi\Documents\Uni\numerik\Barnes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5C5AE7-5AAF-403C-B4D7-0E694328A0EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E9299D-6067-4CB4-8BC4-33488B363B6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="heatmap" sheetId="3" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
   <si>
     <t>number of particles [-]</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>α =</t>
+  </si>
+  <si>
+    <t>Mittelwerte</t>
   </si>
 </sst>
 </file>
@@ -365,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -449,29 +452,33 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -485,6 +492,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -494,34 +525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -864,7 +868,7 @@
   <dimension ref="A1:U241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,7 +883,7 @@
     <col min="24" max="27" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -896,18 +900,18 @@
         <v>4</v>
       </c>
       <c r="G1" s="12"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="11"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
@@ -924,26 +928,26 @@
         <v>1.464207364418415</v>
       </c>
       <c r="G2" s="13"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="37">
-        <v>0.75</v>
-      </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39" t="s">
+      <c r="I2" s="50"/>
+      <c r="J2" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="K2" s="51"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="38"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="50"/>
+      <c r="O2" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="52"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -959,25 +963,25 @@
       <c r="E3">
         <v>0.68254073709023255</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="34" t="s">
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="36"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="56"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>500</v>
       </c>
@@ -993,7 +997,7 @@
       <c r="E4">
         <v>0.58976303467914071</v>
       </c>
-      <c r="G4" s="42"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="15">
         <v>10</v>
       </c>
@@ -1025,7 +1029,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -1084,8 +1088,11 @@
         <f t="array" ref="Q5">VLOOKUP($O$2&amp;Q$4&amp;$G5,CHOOSE({1,2,3},$B:$B&amp;$A:$A&amp;$C:$C,$E:$E),2,0)</f>
         <v>0.34613200201979383</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1000</v>
       </c>
@@ -1144,8 +1151,15 @@
         <f t="array" ref="Q6">VLOOKUP($O$2&amp;Q$4&amp;$G6,CHOOSE({1,2,3},$B:$B&amp;$A:$A&amp;$C:$C,$E:$E),2,0)</f>
         <v>0.31989134097707872</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>0.75</v>
+      </c>
+      <c r="T6" s="60">
+        <f>AVERAGE(H5:L16)</f>
+        <v>0.12435324676706982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5000</v>
       </c>
@@ -1204,8 +1218,15 @@
         <f t="array" ref="Q7">VLOOKUP($O$2&amp;Q$4&amp;$G7,CHOOSE({1,2,3},$B:$B&amp;$A:$A&amp;$C:$C,$E:$E),2,0)</f>
         <v>0.30202844676393759</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>0.5</v>
+      </c>
+      <c r="T7" s="60">
+        <f>AVERAGE(M5:Q16)</f>
+        <v>0.10670217856983553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>100</v>
       </c>
@@ -1264,8 +1285,15 @@
         <f t="array" ref="Q8">VLOOKUP($O$2&amp;Q$4&amp;$G8,CHOOSE({1,2,3},$B:$B&amp;$A:$A&amp;$C:$C,$E:$E),2,0)</f>
         <v>0.18576548337561141</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>0.25</v>
+      </c>
+      <c r="T8" s="60">
+        <f>AVERAGE(H21:L32)</f>
+        <v>9.0327964218154269E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>500</v>
       </c>
@@ -1324,8 +1352,15 @@
         <f t="array" ref="Q9">VLOOKUP($O$2&amp;Q$4&amp;$G9,CHOOSE({1,2,3},$B:$B&amp;$A:$A&amp;$C:$C,$E:$E),2,0)</f>
         <v>0.18356173897576619</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>0.125</v>
+      </c>
+      <c r="T9" s="60">
+        <f>AVERAGE(M21:Q32)</f>
+        <v>0.11389450725698791</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>500</v>
       </c>
@@ -1385,7 +1420,7 @@
         <v>0.1020345531911748</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>500</v>
       </c>
@@ -1445,7 +1480,7 @@
         <v>3.0593837321470231E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -1505,7 +1540,7 @@
         <v>2.7602275781601258E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>500</v>
       </c>
@@ -1565,7 +1600,7 @@
         <v>2.165819575160666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1000</v>
       </c>
@@ -1625,7 +1660,7 @@
         <v>2.070508082338143E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>100</v>
       </c>
@@ -1685,7 +1720,7 @@
         <v>1.9611617259350581E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1000</v>
       </c>
@@ -1779,24 +1814,24 @@
         <v>0.37450456068881471</v>
       </c>
       <c r="G18" s="17"/>
-      <c r="H18" s="39" t="s">
+      <c r="H18" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="40"/>
-      <c r="J18" s="37">
-        <v>0.25</v>
-      </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="39" t="s">
+      <c r="I18" s="50"/>
+      <c r="J18" s="51">
+        <v>0.25</v>
+      </c>
+      <c r="K18" s="51"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="N18" s="40"/>
-      <c r="O18" s="37">
-        <v>0.125</v>
-      </c>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="38"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="51">
+        <v>0.125</v>
+      </c>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="52"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -1814,23 +1849,23 @@
       <c r="E19">
         <v>0.36919191376657251</v>
       </c>
-      <c r="G19" s="43" t="s">
+      <c r="G19" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="34" t="s">
+      <c r="H19" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="34" t="s">
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="36"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="56"/>
     </row>
     <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
@@ -1848,7 +1883,7 @@
       <c r="E20">
         <v>0.36705053871383009</v>
       </c>
-      <c r="G20" s="44"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="15">
         <v>10</v>
       </c>
@@ -1999,7 +2034,7 @@
         <f t="array" ref="Q22">VLOOKUP($O$18&amp;Q$20&amp;$G6,CHOOSE({1,2,3},$B:$B&amp;$A:$A&amp;$C:$C,$E:$E),2,0)</f>
         <v>0.28658704369435389</v>
       </c>
-      <c r="U22" s="48">
+      <c r="U22" s="33">
         <v>0.5</v>
       </c>
     </row>
@@ -2062,7 +2097,7 @@
         <f t="array" ref="Q23">VLOOKUP($O$18&amp;Q$20&amp;$G7,CHOOSE({1,2,3},$B:$B&amp;$A:$A&amp;$C:$C,$E:$E),2,0)</f>
         <v>0.33133855303723547</v>
       </c>
-      <c r="U23" s="51">
+      <c r="U23" s="36">
         <f t="shared" ref="U23:U26" si="0">U24+$U$22/10</f>
         <v>0.44999999999999996</v>
       </c>
@@ -2126,7 +2161,7 @@
         <f t="array" ref="Q24">VLOOKUP($O$18&amp;Q$20&amp;$G8,CHOOSE({1,2,3},$B:$B&amp;$A:$A&amp;$C:$C,$E:$E),2,0)</f>
         <v>0.20996414768232949</v>
       </c>
-      <c r="U24" s="51">
+      <c r="U24" s="36">
         <f t="shared" si="0"/>
         <v>0.39999999999999997</v>
       </c>
@@ -2190,7 +2225,7 @@
         <f t="array" ref="Q25">VLOOKUP($O$18&amp;Q$20&amp;$G9,CHOOSE({1,2,3},$B:$B&amp;$A:$A&amp;$C:$C,$E:$E),2,0)</f>
         <v>0.15842570155895519</v>
       </c>
-      <c r="U25" s="50">
+      <c r="U25" s="35">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
@@ -2254,7 +2289,7 @@
         <f t="array" ref="Q26">VLOOKUP($O$18&amp;Q$20&amp;$G10,CHOOSE({1,2,3},$B:$B&amp;$A:$A&amp;$C:$C,$E:$E),2,0)</f>
         <v>7.5315752601359379E-2</v>
       </c>
-      <c r="U26" s="50">
+      <c r="U26" s="35">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
@@ -2318,7 +2353,7 @@
         <f t="array" ref="Q27">VLOOKUP($O$18&amp;Q$20&amp;$G11,CHOOSE({1,2,3},$B:$B&amp;$A:$A&amp;$C:$C,$E:$E),2,0)</f>
         <v>1.250636795932031E-2</v>
       </c>
-      <c r="U27" s="50">
+      <c r="U27" s="35">
         <f t="shared" ref="U27:U30" si="1">U28+$U$22/10</f>
         <v>0.25</v>
       </c>
@@ -2382,7 +2417,7 @@
         <f t="array" ref="Q28">VLOOKUP($O$18&amp;Q$20&amp;$G12,CHOOSE({1,2,3},$B:$B&amp;$A:$A&amp;$C:$C,$E:$E),2,0)</f>
         <v>1.4798380314723461E-2</v>
       </c>
-      <c r="U28" s="48">
+      <c r="U28" s="33">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
@@ -2446,7 +2481,7 @@
         <f t="array" ref="Q29">VLOOKUP($O$18&amp;Q$20&amp;$G13,CHOOSE({1,2,3},$B:$B&amp;$A:$A&amp;$C:$C,$E:$E),2,0)</f>
         <v>1.2982444905421411E-2</v>
       </c>
-      <c r="U29" s="49">
+      <c r="U29" s="34">
         <f t="shared" si="1"/>
         <v>0.15000000000000002</v>
       </c>
@@ -2510,7 +2545,7 @@
         <f t="array" ref="Q30">VLOOKUP($O$18&amp;Q$20&amp;$G14,CHOOSE({1,2,3},$B:$B&amp;$A:$A&amp;$C:$C,$E:$E),2,0)</f>
         <v>9.0451364693233953E-4</v>
       </c>
-      <c r="U30" s="49">
+      <c r="U30" s="34">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
@@ -2574,7 +2609,7 @@
         <f t="array" ref="Q31">VLOOKUP($O$18&amp;Q$20&amp;$G15,CHOOSE({1,2,3},$B:$B&amp;$A:$A&amp;$C:$C,$E:$E),2,0)</f>
         <v>1.0177507436084029E-3</v>
       </c>
-      <c r="U31" s="49">
+      <c r="U31" s="34">
         <f>U32+$U$22/10</f>
         <v>0.05</v>
       </c>
@@ -2638,7 +2673,7 @@
         <f t="array" ref="Q32">VLOOKUP($O$18&amp;Q$20&amp;$G16,CHOOSE({1,2,3},$B:$B&amp;$A:$A&amp;$C:$C,$E:$E),2,0)</f>
         <v>9.2863268180467509E-4</v>
       </c>
-      <c r="U32" s="48">
+      <c r="U32" s="33">
         <v>0</v>
       </c>
     </row>
@@ -2675,42 +2710,42 @@
       <c r="E34">
         <v>0.31989134097707872</v>
       </c>
-      <c r="G34" s="59"/>
-      <c r="H34" s="52">
+      <c r="G34" s="37"/>
+      <c r="H34" s="38">
         <v>0</v>
       </c>
-      <c r="I34" s="53">
+      <c r="I34" s="42">
         <f>H34+$M$34/5</f>
         <v>0.04</v>
       </c>
-      <c r="J34" s="53">
+      <c r="J34" s="42">
         <f t="shared" ref="J34:L34" si="2">I34+$M$34/5</f>
         <v>0.08</v>
       </c>
-      <c r="K34" s="54">
+      <c r="K34" s="43">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="L34" s="55">
+      <c r="L34" s="44">
         <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
-      <c r="M34" s="52">
+      <c r="M34" s="38">
         <v>0.2</v>
       </c>
-      <c r="N34" s="56">
-        <f t="shared" ref="I34:P34" si="3">M34+$Q$34/10</f>
-        <v>0.25</v>
-      </c>
-      <c r="O34" s="57">
+      <c r="N34" s="39">
+        <f t="shared" ref="N34:P34" si="3">M34+$Q$34/10</f>
+        <v>0.25</v>
+      </c>
+      <c r="O34" s="40">
         <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
-      <c r="P34" s="57">
+      <c r="P34" s="40">
         <f t="shared" si="3"/>
         <v>0.35</v>
       </c>
-      <c r="Q34" s="58">
+      <c r="Q34" s="41">
         <v>0.5</v>
       </c>
     </row>
@@ -2730,17 +2765,17 @@
       <c r="E35">
         <v>0.3123800928104018</v>
       </c>
-      <c r="G35" s="59"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="58"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="41"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -6246,22 +6281,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:N18"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="M3:Q3"/>
@@ -6272,6 +6291,22 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:Q16 H21:Q32 U22:U32 G34:Q34">
     <cfRule type="colorScale" priority="1">
@@ -6318,13 +6353,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="47"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="59"/>
       <c r="M1" s="5"/>
       <c r="N1" s="6"/>
       <c r="O1" s="10" t="s">
@@ -6380,20 +6415,20 @@
       <c r="E3">
         <v>0.68254073709023255</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="45" t="s">
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="47"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="59"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -8611,13 +8646,13 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="47"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="59"/>
       <c r="M1" s="5"/>
       <c r="N1" s="6"/>
       <c r="O1" s="10" t="s">
@@ -8673,20 +8708,20 @@
       <c r="E3">
         <v>3.073458262989474E-2</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="45" t="s">
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="47"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="59"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
